--- a/data/stat probs/georges niang stat probs - condition.xlsx
+++ b/data/stat probs/georges niang stat probs - condition.xlsx
@@ -18,7 +18,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="away 2023 full" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 regular" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="atl 2023 full" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="226 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="228 before 2023 regular" sheetId="12" state="visible" r:id="rId12"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 regular" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1 after 2023 full" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mia 2023 regular" sheetId="15" state="visible" r:id="rId15"/>
@@ -34,11 +34,11 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 regular" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 postseason" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2 before 2023 full" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 regular" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 postseason" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sun 2023 full" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 regular" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 postseason" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tue 2023 full" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 regular" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mil 2023 full" sheetId="32" state="visible" r:id="rId32"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tor 2023 regular" sheetId="33" state="visible" r:id="rId33"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="tor 2023 full" sheetId="34" state="visible" r:id="rId34"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="dal 2023 regular" sheetId="35" state="visible" r:id="rId35"/>
@@ -599,28 +599,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
@@ -1465,28 +1465,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2331,28 +2331,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2525,28 +2525,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2719,28 +2719,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -3041,10 +3041,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -3053,10 +3053,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -3267,28 +3267,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -3589,16 +3589,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -3607,10 +3607,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4231,16 +4231,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4249,10 +4249,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -4873,16 +4873,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5131,16 +5131,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -5149,10 +5149,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5389,10 +5389,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -5401,16 +5401,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -5583,28 +5583,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6449,10 +6449,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -6461,16 +6461,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -6839,28 +6839,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -7705,28 +7705,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -8571,28 +8571,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -9437,16 +9437,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9455,10 +9455,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -9759,16 +9759,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -9777,10 +9777,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -10081,28 +10081,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -10723,28 +10723,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -11365,28 +11365,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -12039,28 +12039,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -12457,28 +12457,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -12875,28 +12875,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -13549,28 +13549,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -13903,28 +13903,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -14321,28 +14321,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -14739,28 +14739,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -15413,28 +15413,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -15831,28 +15831,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -16442,7 +16442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16505,28 +16505,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -16537,28 +16537,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
+        <v>88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="n">
         <v>75</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>25</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
       <c r="I3" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J3" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -16569,22 +16569,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
+        <v>88</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
         <v>25</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -16601,28 +16601,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
+        <v>75</v>
+      </c>
+      <c r="F5" t="n">
         <v>25</v>
       </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H5" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I5" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="J5" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -16639,10 +16639,10 @@
         <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F6" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -16651,10 +16651,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -16671,10 +16671,10 @@
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -16683,10 +16683,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -16703,10 +16703,10 @@
         <v>50</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -16793,10 +16793,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D11" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -16825,10 +16825,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -16857,10 +16857,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -16889,10 +16889,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -16921,10 +16921,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -16953,10 +16953,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -16985,10 +16985,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -17017,10 +17017,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -17038,38 +17038,6 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>75</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -17084,7 +17052,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17169,550 +17137,6 @@
       </c>
       <c r="J2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>50</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50</v>
-      </c>
-      <c r="E3" t="n">
-        <v>75</v>
-      </c>
-      <c r="F3" t="n">
-        <v>25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-      <c r="I3" t="n">
-        <v>50</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>50</v>
-      </c>
-      <c r="D4" t="n">
-        <v>50</v>
-      </c>
-      <c r="E4" t="n">
-        <v>25</v>
-      </c>
-      <c r="F4" t="n">
-        <v>75</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50</v>
-      </c>
-      <c r="J4" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" t="n">
-        <v>50</v>
-      </c>
-      <c r="E5" t="n">
-        <v>25</v>
-      </c>
-      <c r="F5" t="n">
-        <v>75</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" t="n">
-        <v>50</v>
-      </c>
-      <c r="J5" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D7" t="n">
-        <v>50</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>50</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>50</v>
-      </c>
-      <c r="D9" t="n">
-        <v>50</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>50</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>50</v>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>50</v>
-      </c>
-      <c r="D12" t="n">
-        <v>50</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>11</v>
-      </c>
-      <c r="C13" t="n">
-        <v>50</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>100</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>50</v>
-      </c>
-      <c r="D14" t="n">
-        <v>50</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>100</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>100</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D15" t="n">
-        <v>50</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>100</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>14</v>
-      </c>
-      <c r="C16" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" t="n">
-        <v>50</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>100</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" t="n">
-        <v>50</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>100</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>100</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>16</v>
-      </c>
-      <c r="C18" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" t="n">
-        <v>50</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>100</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-      <c r="C19" t="n">
-        <v>25</v>
-      </c>
-      <c r="D19" t="n">
-        <v>75</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>100</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -17789,28 +17213,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>48</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
@@ -18655,28 +18079,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -18687,28 +18111,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
+        <v>67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>33</v>
+      </c>
+      <c r="E3" t="n">
         <v>78</v>
       </c>
-      <c r="D3" t="n">
+      <c r="F3" t="n">
         <v>22</v>
       </c>
-      <c r="E3" t="n">
-        <v>89</v>
-      </c>
-      <c r="F3" t="n">
-        <v>11</v>
-      </c>
       <c r="G3" t="n">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="H3" t="n">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="I3" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J3" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -18719,16 +18143,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D4" t="n">
+        <v>33</v>
+      </c>
+      <c r="E4" t="n">
         <v>78</v>
       </c>
-      <c r="D4" t="n">
+      <c r="F4" t="n">
         <v>22</v>
-      </c>
-      <c r="E4" t="n">
-        <v>56</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44</v>
       </c>
       <c r="G4" t="n">
         <v>22</v>
@@ -18737,10 +18161,10 @@
         <v>78</v>
       </c>
       <c r="I4" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
@@ -18751,28 +18175,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
+        <v>67</v>
+      </c>
+      <c r="F5" t="n">
+        <v>33</v>
+      </c>
+      <c r="G5" t="n">
         <v>11</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>89</v>
       </c>
-      <c r="G5" t="n">
-        <v>22</v>
-      </c>
-      <c r="H5" t="n">
-        <v>78</v>
-      </c>
       <c r="I5" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="J5" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -18783,28 +18207,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="D6" t="n">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E6" t="n">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="F6" t="n">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" t="n">
         <v>22</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>78</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -18815,22 +18239,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
+        <v>44</v>
+      </c>
+      <c r="D7" t="n">
+        <v>56</v>
+      </c>
+      <c r="E7" t="n">
+        <v>33</v>
+      </c>
+      <c r="F7" t="n">
         <v>67</v>
       </c>
-      <c r="D7" t="n">
-        <v>33</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
       <c r="G7" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -18847,16 +18271,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
+        <v>44</v>
+      </c>
+      <c r="D8" t="n">
         <v>56</v>
       </c>
-      <c r="D8" t="n">
-        <v>44</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F8" t="n">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -19071,10 +18495,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -19103,10 +18527,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -19202,7 +18626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19265,16 +18689,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19283,10 +18707,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19303,10 +18727,10 @@
         <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -19335,10 +18759,10 @@
         <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -19367,10 +18791,10 @@
         <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -19411,10 +18835,10 @@
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -19443,10 +18867,10 @@
         <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -19574,6 +18998,262 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>50</v>
+      </c>
+      <c r="D12" t="n">
+        <v>50</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>50</v>
+      </c>
+      <c r="D13" t="n">
+        <v>50</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50</v>
+      </c>
+      <c r="D14" t="n">
+        <v>50</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>50</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>100</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>50</v>
+      </c>
+      <c r="D17" t="n">
+        <v>50</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>100</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>50</v>
+      </c>
+      <c r="D18" t="n">
+        <v>50</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>100</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>100</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -19588,7 +19268,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19651,16 +19331,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -19669,10 +19349,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -19683,28 +19363,28 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E3" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="I3" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -19715,28 +19395,28 @@
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D4" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E4" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="G4" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I4" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -19747,28 +19427,28 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D5" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
@@ -19779,28 +19459,28 @@
         <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D6" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="J6" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -19811,10 +19491,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -19823,16 +19503,16 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J7" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -19843,10 +19523,10 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -19875,10 +19555,10 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -19907,10 +19587,10 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -19939,10 +19619,10 @@
         <v>9</v>
       </c>
       <c r="C11" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -19971,10 +19651,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -20003,10 +19683,10 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -20035,10 +19715,10 @@
         <v>12</v>
       </c>
       <c r="C14" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D14" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -20067,10 +19747,10 @@
         <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -20099,10 +19779,10 @@
         <v>14</v>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -20131,10 +19811,10 @@
         <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -20163,10 +19843,10 @@
         <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D18" t="n">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -20184,6 +19864,38 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>25</v>
+      </c>
+      <c r="D19" t="n">
+        <v>75</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>100</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -20261,16 +19973,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20279,10 +19991,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20519,16 +20231,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -20537,10 +20249,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -20777,28 +20489,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21323,28 +21035,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -21869,16 +21581,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -21887,10 +21599,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22415,16 +22127,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -22433,10 +22145,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -22961,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -23731,28 +23443,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -24501,28 +24213,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -25271,16 +24983,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25289,10 +25001,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -25721,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -25739,10 +25451,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -26171,28 +25883,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -26749,28 +26461,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -27327,28 +27039,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -27841,28 +27553,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -28355,28 +28067,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -28741,28 +28453,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -29127,28 +28839,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -29481,16 +29193,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -29499,10 +29211,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -29899,28 +29611,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -30253,28 +29965,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3">
@@ -31023,16 +30735,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -31041,10 +30753,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -31281,28 +30993,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
@@ -32051,28 +31763,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -32565,28 +32277,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -33079,28 +32791,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -33849,16 +33561,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -33867,10 +33579,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -34139,28 +33851,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -34909,28 +34621,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -35391,28 +35103,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -36161,28 +35873,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -36643,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37221,28 +36933,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -37799,28 +37511,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38121,28 +37833,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38443,28 +38155,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -38701,10 +38413,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
         <v>100</v>
@@ -38719,10 +38431,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39055,28 +38767,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -39409,22 +39121,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -39571,28 +39283,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -40437,28 +40149,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -41303,16 +41015,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -41321,10 +41033,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41593,16 +41305,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -41611,10 +41323,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -41883,28 +41595,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -42493,28 +42205,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -42847,28 +42559,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -43457,28 +43169,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -44067,28 +43779,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3">
@@ -44677,28 +44389,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45191,28 +44903,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -45705,28 +45417,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -46379,28 +46091,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -46637,28 +46349,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -47317,16 +47029,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -47511,16 +47223,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
         <v>100</v>
@@ -47699,28 +47411,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48341,28 +48053,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -48983,28 +48695,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -49625,28 +49337,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50267,28 +49979,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -50717,28 +50429,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -51167,28 +50879,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -51521,28 +51233,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -52387,28 +52099,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -52741,28 +52453,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -52999,28 +52711,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -53257,28 +52969,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -53675,28 +53387,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -54093,16 +53805,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54111,10 +53823,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -54639,16 +54351,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -54657,10 +54369,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -55185,28 +54897,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -55763,28 +55475,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -56341,28 +56053,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I2" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
